--- a/docs/user/user.xlsx
+++ b/docs/user/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\python\BD\DataProcessing\docs\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B780CA0-0348-4D92-8444-4D8F9A124D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35954ACF-6F06-4C91-9C87-1A97A1E5E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>BD_BA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD BA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,6 +208,22 @@
   <si>
     <t>永義(香港)
 伯齊(香港)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD BA 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD BA 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD BA 03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD BA 04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +572,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -719,10 +731,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -730,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
@@ -742,10 +754,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,10 +765,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -765,10 +777,10 @@
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -776,10 +788,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
@@ -788,10 +800,10 @@
         <v>35</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -808,5 +820,6 @@
     <hyperlink ref="C10" r:id="rId9" xr:uid="{30555BB9-FFB1-48AA-A28A-9789F18724FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>